--- a/Fabril Docs Vital/VPL Updated/Employees Excel sheets/May excel/Gurinder And harjeet 13 may excel.xlsx
+++ b/Fabril Docs Vital/VPL Updated/Employees Excel sheets/May excel/Gurinder And harjeet 13 may excel.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>S/O</t>
   </si>
@@ -169,13 +169,118 @@
   </si>
   <si>
     <t xml:space="preserve">TOTAL AMOUNT </t>
+  </si>
+  <si>
+    <t>NGA_PS_14442018_80</t>
+  </si>
+  <si>
+    <t>12 Eton pl</t>
+  </si>
+  <si>
+    <t>Gurinderjeet Singh</t>
+  </si>
+  <si>
+    <t>WT4 document wasn’t sent to us or Chorus. Code has been downgrade to WT3</t>
+  </si>
+  <si>
+    <t>P-NGA-CONNCT SDU</t>
+  </si>
+  <si>
+    <t>ZNGA563BC</t>
+  </si>
+  <si>
+    <t>NGA_PS_14442018_78</t>
+  </si>
+  <si>
+    <t>8 Ellesmere Cre</t>
+  </si>
+  <si>
+    <t>WT5 document wasn’t sent to us or Chorus. Code has been downgrade to WT3</t>
+  </si>
+  <si>
+    <t>ZNGA564BC</t>
+  </si>
+  <si>
+    <t>88 Shamrock st</t>
+  </si>
+  <si>
+    <t> Incentive code processed that already have the payment for both Connect and build code. that's why extra build code is removed now.</t>
+  </si>
+  <si>
+    <t>ZNGA561B</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Addreess</t>
+  </si>
+  <si>
+    <t>Job ID</t>
+  </si>
+  <si>
+    <t>Req ID</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>Reason for deduction</t>
+  </si>
+  <si>
+    <t>Skill code</t>
+  </si>
+  <si>
+    <t>Approved Date</t>
+  </si>
+  <si>
+    <t>Completed Date</t>
+  </si>
+  <si>
+    <t>Payment Code</t>
+  </si>
+  <si>
+    <t>Variation Ref No</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Invoice Value</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>NGA_PS_14442018_83</t>
+  </si>
+  <si>
+    <t>110 linton st, west end</t>
+  </si>
+  <si>
+    <t> Wiring Integration not done in lx s/o (06839988)</t>
+  </si>
+  <si>
+    <t>NGA-750</t>
+  </si>
+  <si>
+    <t>NGA-762</t>
+  </si>
+  <si>
+    <t>Negative  Payments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +296,82 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +381,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,6 +442,98 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -565,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,6 +861,15 @@
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="41.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1162,7 +1454,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1173,9 +1465,287 @@
         <v>13939.54</v>
       </c>
       <c r="F33" s="1"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="36"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+    </row>
+    <row r="36" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2267892</v>
+      </c>
+      <c r="D37" s="9">
+        <v>6267369</v>
+      </c>
+      <c r="E37" s="11">
+        <v>-626.70000000000005</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="10">
+        <v>43194</v>
+      </c>
+      <c r="I37" s="10">
+        <v>43194</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L37" s="11">
+        <v>626.70000000000005</v>
+      </c>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="13">
+        <v>2265034</v>
+      </c>
+      <c r="D38" s="14">
+        <v>6222603</v>
+      </c>
+      <c r="E38" s="16">
+        <v>-881.69</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="15">
+        <v>43180</v>
+      </c>
+      <c r="I38" s="15">
+        <v>43180</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L38" s="16">
+        <v>881.69</v>
+      </c>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="17">
+        <v>2265057</v>
+      </c>
+      <c r="D39" s="17">
+        <v>6215662</v>
+      </c>
+      <c r="E39" s="22">
+        <v>-194.94</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="20">
+        <v>43178</v>
+      </c>
+      <c r="I39" s="20">
+        <v>43178</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K39" s="17">
+        <v>-1</v>
+      </c>
+      <c r="L39" s="21">
+        <v>194.94</v>
+      </c>
+      <c r="M39" s="19"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="30">
+        <v>2236716</v>
+      </c>
+      <c r="D40" s="28">
+        <v>7091305</v>
+      </c>
+      <c r="E40" s="34">
+        <v>-22.61</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="32">
+        <v>43213</v>
+      </c>
+      <c r="I40" s="32">
+        <v>43213</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K40" s="33">
+        <v>-1</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="28">
+        <v>2315967</v>
+      </c>
+      <c r="D41" s="28">
+        <v>7091305</v>
+      </c>
+      <c r="E41" s="34">
+        <v>-60.72</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="32">
+        <v>43213</v>
+      </c>
+      <c r="I41" s="32">
+        <v>43213</v>
+      </c>
+      <c r="J41" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41" s="33">
+        <v>-1</v>
+      </c>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="17" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
+  <mergeCells count="1">
+    <mergeCell ref="A35:D35"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C1:C34 C36:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fabril Docs Vital/VPL Updated/Employees Excel sheets/May excel/Gurinder And harjeet 13 may excel.xlsx
+++ b/Fabril Docs Vital/VPL Updated/Employees Excel sheets/May excel/Gurinder And harjeet 13 may excel.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FABRIL\Documents\GitHub\Fabril-Solutions\Fabril Docs Vital\VPL Updated\Employees Excel sheets\May excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="630" windowWidth="19575" windowHeight="7380"/>
+    <workbookView xWindow="720" yWindow="630" windowWidth="19580" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -276,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -557,6 +562,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -604,7 +612,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,7 +647,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -850,29 +858,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" customWidth="1"/>
+    <col min="4" max="4" width="41.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -892,7 +900,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>43206</v>
       </c>
@@ -910,7 +918,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>43206</v>
       </c>
@@ -928,7 +936,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>43208</v>
       </c>
@@ -946,7 +954,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>43208</v>
       </c>
@@ -964,7 +972,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>43208</v>
       </c>
@@ -982,7 +990,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>43209</v>
       </c>
@@ -1000,7 +1008,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>43210</v>
       </c>
@@ -1018,7 +1026,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>43211</v>
       </c>
@@ -1036,7 +1044,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>43211</v>
       </c>
@@ -1054,7 +1062,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>43213</v>
       </c>
@@ -1072,7 +1080,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>43213</v>
       </c>
@@ -1090,7 +1098,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>43214</v>
       </c>
@@ -1108,7 +1116,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>43214</v>
       </c>
@@ -1126,7 +1134,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>43216</v>
       </c>
@@ -1144,7 +1152,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>43217</v>
       </c>
@@ -1162,7 +1170,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>43218</v>
       </c>
@@ -1180,7 +1188,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>43218</v>
       </c>
@@ -1198,7 +1206,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>43220</v>
       </c>
@@ -1216,7 +1224,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>43220</v>
       </c>
@@ -1234,7 +1242,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>43221</v>
       </c>
@@ -1252,7 +1260,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>43222</v>
       </c>
@@ -1270,7 +1278,7 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>43224</v>
       </c>
@@ -1288,7 +1296,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>43224</v>
       </c>
@@ -1306,7 +1314,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>43225</v>
       </c>
@@ -1324,7 +1332,7 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>43227</v>
       </c>
@@ -1342,7 +1350,7 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>43227</v>
       </c>
@@ -1360,7 +1368,7 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>43228</v>
       </c>
@@ -1378,7 +1386,7 @@
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>43230</v>
       </c>
@@ -1396,7 +1404,7 @@
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>43180</v>
       </c>
@@ -1414,7 +1422,7 @@
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>43157</v>
       </c>
@@ -1434,7 +1442,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>43222</v>
       </c>
@@ -1454,7 +1462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1467,7 +1475,7 @@
       <c r="F33" s="1"/>
       <c r="H33" s="27"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="35"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -1475,7 +1483,7 @@
       <c r="F34" s="36"/>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" ht="36" x14ac:dyDescent="0.8">
       <c r="A35" s="38" t="s">
         <v>84</v>
       </c>
@@ -1483,7 +1491,7 @@
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
     </row>
-    <row r="36" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="21" x14ac:dyDescent="0.5">
       <c r="A36" s="23" t="s">
         <v>64</v>
       </c>
@@ -1530,7 +1538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>51</v>
       </c>
@@ -1573,7 +1581,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>57</v>
       </c>
@@ -1616,7 +1624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="85" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>57</v>
       </c>
@@ -1659,7 +1667,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="34" x14ac:dyDescent="0.35">
       <c r="A40" s="28" t="s">
         <v>79</v>
       </c>
@@ -1700,7 +1708,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="34" x14ac:dyDescent="0.35">
       <c r="A41" s="28" t="s">
         <v>79</v>
       </c>
@@ -1758,7 +1766,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1770,7 +1778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
